--- a/static/download/2020/RP3_APT_ATFM_SLOT_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_ATFM_SLOT_2020_Jan_Dec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\drive-download-20210604T121810Z-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="APT_ATFM_ADH_LOC" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="196" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="350">
   <si>
     <t>Data source</t>
   </si>
@@ -1071,6 +1071,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Airport added (processing issue)</t>
   </si>
 </sst>
 </file>
@@ -1095,118 +1098,99 @@
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF3F3F3"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1433,7 +1417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,6 +1513,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1580,7 +1567,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44351.596910416665" refreshedVersion="6" recordCount="151">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44351.721243518521" refreshedVersion="6" recordCount="151">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:F156" sheet="APT_ATFM_ADH_APT"/>
   </cacheSource>
@@ -1619,13 +1606,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="ATFM slot adherence (%)" numFmtId="168">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="ATFM regulated flights" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9347"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9347"/>
     </cacheField>
     <cacheField name="Outside ATFM slot window" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="541"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="541"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1786,9 +1773,9 @@
     <x v="2"/>
     <s v="Tartu (EETU)"/>
     <s v="EETU"/>
-    <m/>
-    <m/>
-    <m/>
+    <e v="#DIV/0!"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -1970,9 +1957,9 @@
     <x v="9"/>
     <s v="Radom (EPRA)"/>
     <s v="EPRA"/>
-    <m/>
-    <m/>
-    <m/>
+    <e v="#DIV/0!"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -2034,17 +2021,17 @@
     <x v="11"/>
     <s v="Jurmala (EVJA)"/>
     <s v="EVJA"/>
-    <m/>
-    <m/>
-    <m/>
+    <e v="#DIV/0!"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="11"/>
     <s v="Liepaja (EVLA)"/>
     <s v="EVLA"/>
-    <m/>
-    <m/>
-    <m/>
+    <e v="#DIV/0!"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -2058,9 +2045,9 @@
     <x v="11"/>
     <s v="Ventspils (EVVA)"/>
     <s v="EVVA"/>
-    <m/>
-    <m/>
-    <m/>
+    <e v="#DIV/0!"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="12"/>
@@ -2418,9 +2405,9 @@
     <x v="13"/>
     <s v="Rouen (LFOP)"/>
     <s v="LFOP"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="0.7421875"/>
+    <n v="128"/>
+    <n v="33"/>
   </r>
   <r>
     <x v="13"/>
@@ -2746,9 +2733,9 @@
     <x v="20"/>
     <s v="Flores (LPFL)"/>
     <s v="LPFL"/>
-    <m/>
-    <m/>
-    <m/>
+    <e v="#DIV/0!"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="20"/>
@@ -2850,7 +2837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_ADH_LOC" cacheId="196" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_ADH_LOC" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A5:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField name="State" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -2883,7 +2870,7 @@
     </pivotField>
     <pivotField name="Apt. name" compact="0" numFmtId="2" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="ICAO" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="ATFM slot adherence (%)" compact="0" numFmtId="168" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="ATFM slot adherence (%)" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="ATFM regulated flights" dataField="1" compact="0" numFmtId="3" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Outside ATFM slot window" dataField="1" compact="0" numFmtId="3" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
   </pivotFields>
@@ -3253,7 +3240,7 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3291,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44209</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -3329,46 +3316,44 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>8</v>
-      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="54">
         <v>6</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="55">
         <v>4953</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="56">
         <v>207</v>
       </c>
       <c r="E7" s="21">
@@ -3378,16 +3363,16 @@
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="58">
         <v>1</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="59">
         <v>4611</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="60">
         <v>119</v>
       </c>
       <c r="E8" s="21">
@@ -3397,16 +3382,16 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="58">
         <v>4</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="59">
         <v>2187</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="60">
         <v>111</v>
       </c>
       <c r="E9" s="21">
@@ -3416,16 +3401,16 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="58">
         <v>1</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="59">
         <v>2382</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="60">
         <v>32</v>
       </c>
       <c r="E10" s="21">
@@ -3435,358 +3420,358 @@
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="58">
+        <v>2</v>
+      </c>
+      <c r="C11" s="59">
+        <v>198</v>
+      </c>
+      <c r="D11" s="60">
+        <v>3</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.98484848484848486</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="58">
         <v>1</v>
       </c>
-      <c r="C11" s="58">
-        <v>198</v>
-      </c>
-      <c r="D11" s="59">
+      <c r="C12" s="59">
+        <v>1224</v>
+      </c>
+      <c r="D12" s="60">
+        <v>78</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.93627450980392157</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="58">
+        <v>58</v>
+      </c>
+      <c r="C13" s="59">
+        <v>36685</v>
+      </c>
+      <c r="D13" s="60">
+        <v>4378</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.88065967016491753</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="58">
+        <v>16</v>
+      </c>
+      <c r="C14" s="59">
+        <v>29599</v>
+      </c>
+      <c r="D14" s="60">
+        <v>1337</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95482955505253553</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="58">
+        <v>1</v>
+      </c>
+      <c r="C15" s="59">
+        <v>1124</v>
+      </c>
+      <c r="D15" s="60">
+        <v>62</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.94483985765124556</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="58">
+        <v>1</v>
+      </c>
+      <c r="C16" s="59">
+        <v>1767</v>
+      </c>
+      <c r="D16" s="60">
+        <v>67</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="0"/>
+        <v>0.96208262591963778</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="58">
         <v>3</v>
       </c>
-      <c r="E11" s="21">
-        <f t="shared" si="0"/>
-        <v>0.98484848484848486</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="57">
+      <c r="C17" s="59">
+        <v>3265</v>
+      </c>
+      <c r="D17" s="60">
+        <v>104</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="0"/>
+        <v>0.96814701378254209</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="58">
+        <v>5</v>
+      </c>
+      <c r="C18" s="59">
+        <v>7551</v>
+      </c>
+      <c r="D18" s="60">
+        <v>312</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95868096940802539</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="58">
+        <v>4</v>
+      </c>
+      <c r="C19" s="59">
+        <v>491</v>
+      </c>
+      <c r="D19" s="60">
+        <v>8</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
+        <v>0.9837067209775967</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="58">
         <v>1</v>
       </c>
-      <c r="C12" s="58">
-        <v>1224</v>
-      </c>
-      <c r="D12" s="59">
-        <v>78</v>
-      </c>
-      <c r="E12" s="21">
-        <f t="shared" si="0"/>
-        <v>0.93627450980392157</v>
-      </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="57">
-        <v>57</v>
-      </c>
-      <c r="C13" s="58">
-        <v>36557</v>
-      </c>
-      <c r="D13" s="59">
-        <v>4345</v>
-      </c>
-      <c r="E13" s="21">
-        <f t="shared" si="0"/>
-        <v>0.88114451404655747</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="57">
-        <v>16</v>
-      </c>
-      <c r="C14" s="58">
-        <v>29599</v>
-      </c>
-      <c r="D14" s="59">
-        <v>1337</v>
-      </c>
-      <c r="E14" s="21">
-        <f t="shared" si="0"/>
-        <v>0.95482955505253553</v>
-      </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="57">
+      <c r="C20" s="59">
+        <v>1613</v>
+      </c>
+      <c r="D20" s="60">
+        <v>158</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="0"/>
+        <v>0.90204587724736518</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="58">
         <v>1</v>
       </c>
-      <c r="C15" s="58">
-        <v>1124</v>
-      </c>
-      <c r="D15" s="59">
-        <v>62</v>
-      </c>
-      <c r="E15" s="21">
-        <f t="shared" si="0"/>
-        <v>0.94483985765124556</v>
-      </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="57">
+      <c r="C21" s="59">
+        <v>596</v>
+      </c>
+      <c r="D21" s="60">
+        <v>17</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97147651006711411</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="58">
+        <v>4</v>
+      </c>
+      <c r="C22" s="59">
+        <v>6887</v>
+      </c>
+      <c r="D22" s="60">
+        <v>163</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97633222012487297</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="58">
+        <v>4</v>
+      </c>
+      <c r="C23" s="59">
+        <v>1827</v>
+      </c>
+      <c r="D23" s="60">
+        <v>29</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="0"/>
+        <v>0.98412698412698418</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="58">
+        <v>15</v>
+      </c>
+      <c r="C24" s="59">
+        <v>4366</v>
+      </c>
+      <c r="D24" s="60">
+        <v>204</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95327530920751258</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="58">
+        <v>11</v>
+      </c>
+      <c r="C25" s="59">
+        <v>8018</v>
+      </c>
+      <c r="D25" s="60">
+        <v>378</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95285607383387383</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="58">
+        <v>2</v>
+      </c>
+      <c r="C26" s="59">
+        <v>1188</v>
+      </c>
+      <c r="D26" s="60">
+        <v>40</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="0"/>
+        <v>0.96632996632996637</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="58">
+        <v>7</v>
+      </c>
+      <c r="C27" s="59">
+        <v>19033</v>
+      </c>
+      <c r="D27" s="60">
+        <v>895</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95297640939421002</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="58">
         <v>1</v>
       </c>
-      <c r="C16" s="58">
-        <v>1767</v>
-      </c>
-      <c r="D16" s="59">
-        <v>67</v>
-      </c>
-      <c r="E16" s="21">
-        <f t="shared" si="0"/>
-        <v>0.96208262591963778</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="57">
-        <v>3</v>
-      </c>
-      <c r="C17" s="58">
-        <v>3265</v>
-      </c>
-      <c r="D17" s="59">
-        <v>104</v>
-      </c>
-      <c r="E17" s="21">
-        <f t="shared" si="0"/>
-        <v>0.96814701378254209</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="57">
-        <v>5</v>
-      </c>
-      <c r="C18" s="58">
-        <v>7551</v>
-      </c>
-      <c r="D18" s="59">
-        <v>312</v>
-      </c>
-      <c r="E18" s="21">
-        <f t="shared" si="0"/>
-        <v>0.95868096940802539</v>
-      </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="57">
-        <v>1</v>
-      </c>
-      <c r="C19" s="58">
-        <v>491</v>
-      </c>
-      <c r="D19" s="59">
-        <v>8</v>
-      </c>
-      <c r="E19" s="21">
-        <f t="shared" si="0"/>
-        <v>0.9837067209775967</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="57">
-        <v>1</v>
-      </c>
-      <c r="C20" s="58">
-        <v>1613</v>
-      </c>
-      <c r="D20" s="59">
-        <v>158</v>
-      </c>
-      <c r="E20" s="21">
-        <f t="shared" si="0"/>
-        <v>0.90204587724736518</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
+      <c r="C28" s="59">
+        <v>1611</v>
+      </c>
+      <c r="D28" s="60">
         <v>29</v>
       </c>
-      <c r="B21" s="57">
-        <v>1</v>
-      </c>
-      <c r="C21" s="58">
-        <v>596</v>
-      </c>
-      <c r="D21" s="59">
-        <v>17</v>
-      </c>
-      <c r="E21" s="21">
-        <f t="shared" si="0"/>
-        <v>0.97147651006711411</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="57">
-        <v>4</v>
-      </c>
-      <c r="C22" s="58">
-        <v>6887</v>
-      </c>
-      <c r="D22" s="59">
-        <v>163</v>
-      </c>
-      <c r="E22" s="21">
-        <f t="shared" si="0"/>
-        <v>0.97633222012487297</v>
-      </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="57">
-        <v>4</v>
-      </c>
-      <c r="C23" s="58">
-        <v>1827</v>
-      </c>
-      <c r="D23" s="59">
-        <v>29</v>
-      </c>
-      <c r="E23" s="21">
-        <f t="shared" si="0"/>
-        <v>0.98412698412698418</v>
-      </c>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="57">
-        <v>14</v>
-      </c>
-      <c r="C24" s="58">
-        <v>4366</v>
-      </c>
-      <c r="D24" s="59">
-        <v>204</v>
-      </c>
-      <c r="E24" s="21">
-        <f t="shared" si="0"/>
-        <v>0.95327530920751258</v>
-      </c>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="57">
-        <v>10</v>
-      </c>
-      <c r="C25" s="58">
-        <v>8018</v>
-      </c>
-      <c r="D25" s="59">
-        <v>378</v>
-      </c>
-      <c r="E25" s="21">
-        <f t="shared" si="0"/>
-        <v>0.95285607383387383</v>
-      </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="57">
+      <c r="E28" s="21">
+        <f t="shared" si="0"/>
+        <v>0.98199875853507135</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="62">
         <v>2</v>
       </c>
-      <c r="C26" s="58">
-        <v>1188</v>
-      </c>
-      <c r="D26" s="59">
-        <v>40</v>
-      </c>
-      <c r="E26" s="21">
-        <f t="shared" si="0"/>
-        <v>0.96632996632996637</v>
-      </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="57">
-        <v>7</v>
-      </c>
-      <c r="C27" s="58">
-        <v>19033</v>
-      </c>
-      <c r="D27" s="59">
-        <v>895</v>
-      </c>
-      <c r="E27" s="21">
-        <f t="shared" si="0"/>
-        <v>0.95297640939421002</v>
-      </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="57">
-        <v>1</v>
-      </c>
-      <c r="C28" s="58">
-        <v>1611</v>
-      </c>
-      <c r="D28" s="59">
-        <v>29</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="0"/>
-        <v>0.98199875853507135</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="61">
-        <v>2</v>
-      </c>
-      <c r="C29" s="62">
+      <c r="C29" s="63">
         <v>8453</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="64">
         <v>460</v>
       </c>
       <c r="E29" s="21">
@@ -7815,7 +7800,9 @@
   </sheetPr>
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7853,7 +7840,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44209</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -7919,7 +7906,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="38">
-        <f t="shared" ref="D6:D23" si="0">1-(F6/E6)</f>
+        <f t="shared" ref="D6:D156" si="0">1-(F6/E6)</f>
         <v>0.97419214920841468</v>
       </c>
       <c r="E6" s="39">
@@ -8296,9 +8283,16 @@
       <c r="C24" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="D24" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+      <c r="F24" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
@@ -8311,7 +8305,7 @@
         <v>79</v>
       </c>
       <c r="D25" s="38">
-        <f t="shared" ref="D25:D46" si="1">1-(F25/E25)</f>
+        <f t="shared" si="0"/>
         <v>0.93627450980392157</v>
       </c>
       <c r="E25" s="39">
@@ -8332,7 +8326,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97587474037386168</v>
       </c>
       <c r="E26" s="39">
@@ -8353,7 +8347,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.95964125560538116</v>
       </c>
       <c r="E27" s="39">
@@ -8374,7 +8368,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
       <c r="E28" s="39">
@@ -8395,7 +8389,7 @@
         <v>87</v>
       </c>
       <c r="D29" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29" s="39">
@@ -8416,7 +8410,7 @@
         <v>89</v>
       </c>
       <c r="D30" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97945205479452058</v>
       </c>
       <c r="E30" s="39">
@@ -8437,7 +8431,7 @@
         <v>91</v>
       </c>
       <c r="D31" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.96598639455782309</v>
       </c>
       <c r="E31" s="39">
@@ -8458,7 +8452,7 @@
         <v>93</v>
       </c>
       <c r="D32" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98333333333333328</v>
       </c>
       <c r="E32" s="39">
@@ -8479,7 +8473,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98656591099916036</v>
       </c>
       <c r="E33" s="39">
@@ -8500,7 +8494,7 @@
         <v>97</v>
       </c>
       <c r="D34" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.90204587724736518</v>
       </c>
       <c r="E34" s="39">
@@ -8521,7 +8515,7 @@
         <v>99</v>
       </c>
       <c r="D35" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98905109489051091</v>
       </c>
       <c r="E35" s="39">
@@ -8542,7 +8536,7 @@
         <v>101</v>
       </c>
       <c r="D36" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98422436459246276</v>
       </c>
       <c r="E36" s="39">
@@ -8563,7 +8557,7 @@
         <v>103</v>
       </c>
       <c r="D37" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.9887640449438202</v>
       </c>
       <c r="E37" s="39">
@@ -8584,7 +8578,7 @@
         <v>105</v>
       </c>
       <c r="D38" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97435897435897434</v>
       </c>
       <c r="E38" s="39">
@@ -8605,7 +8599,7 @@
         <v>107</v>
       </c>
       <c r="D39" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
       <c r="E39" s="39">
@@ -8626,7 +8620,7 @@
         <v>109</v>
       </c>
       <c r="D40" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="E40" s="39">
@@ -8647,7 +8641,7 @@
         <v>111</v>
       </c>
       <c r="D41" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.95930949445129465</v>
       </c>
       <c r="E41" s="39">
@@ -8668,7 +8662,7 @@
         <v>113</v>
       </c>
       <c r="D42" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.89583333333333337</v>
       </c>
       <c r="E42" s="39">
@@ -8689,7 +8683,7 @@
         <v>115</v>
       </c>
       <c r="D43" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="E43" s="39">
@@ -8710,7 +8704,7 @@
         <v>117</v>
       </c>
       <c r="D44" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E44" s="39">
@@ -8731,7 +8725,7 @@
         <v>119</v>
       </c>
       <c r="D45" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.96354166666666663</v>
       </c>
       <c r="E45" s="39">
@@ -8752,7 +8746,7 @@
         <v>121</v>
       </c>
       <c r="D46" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97872340425531912</v>
       </c>
       <c r="E46" s="39">
@@ -8772,9 +8766,16 @@
       <c r="C47" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
+      <c r="D47" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="41">
+        <v>0</v>
+      </c>
+      <c r="F47" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
@@ -8787,7 +8788,7 @@
         <v>125</v>
       </c>
       <c r="D48" s="38">
-        <f t="shared" ref="D48:D54" si="2">1-(F48/E48)</f>
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="E48" s="39">
@@ -8808,7 +8809,7 @@
         <v>127</v>
       </c>
       <c r="D49" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.95652173913043481</v>
       </c>
       <c r="E49" s="39">
@@ -8829,7 +8830,7 @@
         <v>129</v>
       </c>
       <c r="D50" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="E50" s="39">
@@ -8850,7 +8851,7 @@
         <v>131</v>
       </c>
       <c r="D51" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.97509474824038977</v>
       </c>
       <c r="E51" s="39">
@@ -8871,7 +8872,7 @@
         <v>133</v>
       </c>
       <c r="D52" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="E52" s="39">
@@ -8892,7 +8893,7 @@
         <v>135</v>
       </c>
       <c r="D53" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E53" s="39">
@@ -8913,7 +8914,7 @@
         <v>137</v>
       </c>
       <c r="D54" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.98199875853507135</v>
       </c>
       <c r="E54" s="39">
@@ -8933,9 +8934,16 @@
       <c r="C55" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
+      <c r="D55" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="41">
+        <v>0</v>
+      </c>
+      <c r="F55" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
@@ -8947,9 +8955,16 @@
       <c r="C56" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
+      <c r="D56" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" s="41">
+        <v>0</v>
+      </c>
+      <c r="F56" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
@@ -8962,7 +8977,7 @@
         <v>143</v>
       </c>
       <c r="D57" s="38">
-        <f>1-(F57/E57)</f>
+        <f t="shared" si="0"/>
         <v>0.9837067209775967</v>
       </c>
       <c r="E57" s="39">
@@ -8982,9 +8997,16 @@
       <c r="C58" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
+      <c r="D58" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E58" s="41">
+        <v>0</v>
+      </c>
+      <c r="F58" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
@@ -8997,7 +9019,7 @@
         <v>147</v>
       </c>
       <c r="D59" s="38">
-        <f t="shared" ref="D59:D102" si="3">1-(F59/E59)</f>
+        <f t="shared" si="0"/>
         <v>0.96403472509301369</v>
       </c>
       <c r="E59" s="39">
@@ -9018,7 +9040,7 @@
         <v>149</v>
       </c>
       <c r="D60" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.98812500000000003</v>
       </c>
       <c r="E60" s="39">
@@ -9039,7 +9061,7 @@
         <v>151</v>
       </c>
       <c r="D61" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.9494949494949495</v>
       </c>
       <c r="E61" s="39">
@@ -9060,7 +9082,7 @@
         <v>153</v>
       </c>
       <c r="D62" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.98971722365038561</v>
       </c>
       <c r="E62" s="39">
@@ -9081,7 +9103,7 @@
         <v>155</v>
       </c>
       <c r="D63" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.94227339062753368</v>
       </c>
       <c r="E63" s="39">
@@ -9102,7 +9124,7 @@
         <v>157</v>
       </c>
       <c r="D64" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.93377192982456136</v>
       </c>
       <c r="E64" s="39">
@@ -9123,7 +9145,7 @@
         <v>159</v>
       </c>
       <c r="D65" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.97335203366058909</v>
       </c>
       <c r="E65" s="39">
@@ -9144,7 +9166,7 @@
         <v>161</v>
       </c>
       <c r="D66" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="E66" s="39">
@@ -9165,7 +9187,7 @@
         <v>163</v>
       </c>
       <c r="D67" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.79220779220779214</v>
       </c>
       <c r="E67" s="39">
@@ -9186,7 +9208,7 @@
         <v>165</v>
       </c>
       <c r="D68" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.91479473276529821</v>
       </c>
       <c r="E68" s="39">
@@ -9207,7 +9229,7 @@
         <v>167</v>
       </c>
       <c r="D69" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.81818181818181812</v>
       </c>
       <c r="E69" s="39">
@@ -9228,7 +9250,7 @@
         <v>169</v>
       </c>
       <c r="D70" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
       <c r="E70" s="39">
@@ -9249,7 +9271,7 @@
         <v>171</v>
       </c>
       <c r="D71" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.8783783783783784</v>
       </c>
       <c r="E71" s="39">
@@ -9270,7 +9292,7 @@
         <v>173</v>
       </c>
       <c r="D72" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.93396226415094341</v>
       </c>
       <c r="E72" s="39">
@@ -9291,7 +9313,7 @@
         <v>175</v>
       </c>
       <c r="D73" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.90220820189274442</v>
       </c>
       <c r="E73" s="39">
@@ -9312,7 +9334,7 @@
         <v>177</v>
       </c>
       <c r="D74" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.85869565217391308</v>
       </c>
       <c r="E74" s="39">
@@ -9333,7 +9355,7 @@
         <v>179</v>
       </c>
       <c r="D75" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.90476190476190477</v>
       </c>
       <c r="E75" s="39">
@@ -9354,7 +9376,7 @@
         <v>181</v>
       </c>
       <c r="D76" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.8878048780487805</v>
       </c>
       <c r="E76" s="39">
@@ -9375,7 +9397,7 @@
         <v>183</v>
       </c>
       <c r="D77" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.88505747126436785</v>
       </c>
       <c r="E77" s="39">
@@ -9396,7 +9418,7 @@
         <v>185</v>
       </c>
       <c r="D78" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.59420289855072461</v>
       </c>
       <c r="E78" s="39">
@@ -9417,7 +9439,7 @@
         <v>187</v>
       </c>
       <c r="D79" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.82474226804123707</v>
       </c>
       <c r="E79" s="39">
@@ -9438,7 +9460,7 @@
         <v>189</v>
       </c>
       <c r="D80" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.80681818181818188</v>
       </c>
       <c r="E80" s="39">
@@ -9459,7 +9481,7 @@
         <v>191</v>
       </c>
       <c r="D81" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.82051282051282048</v>
       </c>
       <c r="E81" s="39">
@@ -9480,7 +9502,7 @@
         <v>193</v>
       </c>
       <c r="D82" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.8029197080291971</v>
       </c>
       <c r="E82" s="39">
@@ -9501,7 +9523,7 @@
         <v>195</v>
       </c>
       <c r="D83" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.76381909547738691</v>
       </c>
       <c r="E83" s="39">
@@ -9522,7 +9544,7 @@
         <v>197</v>
       </c>
       <c r="D84" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.89328063241106714</v>
       </c>
       <c r="E84" s="39">
@@ -9543,7 +9565,7 @@
         <v>199</v>
       </c>
       <c r="D85" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.81493506493506496</v>
       </c>
       <c r="E85" s="39">
@@ -9564,7 +9586,7 @@
         <v>201</v>
       </c>
       <c r="D86" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.84536541889483063</v>
       </c>
       <c r="E86" s="39">
@@ -9585,7 +9607,7 @@
         <v>203</v>
       </c>
       <c r="D87" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.74881516587677721</v>
       </c>
       <c r="E87" s="39">
@@ -9606,7 +9628,7 @@
         <v>205</v>
       </c>
       <c r="D88" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.93604651162790697</v>
       </c>
       <c r="E88" s="39">
@@ -9627,7 +9649,7 @@
         <v>207</v>
       </c>
       <c r="D89" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="E89" s="39">
@@ -9648,7 +9670,7 @@
         <v>209</v>
       </c>
       <c r="D90" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="E90" s="39">
@@ -9669,7 +9691,7 @@
         <v>211</v>
       </c>
       <c r="D91" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.9336283185840708</v>
       </c>
       <c r="E91" s="39">
@@ -9690,7 +9712,7 @@
         <v>213</v>
       </c>
       <c r="D92" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.79629629629629628</v>
       </c>
       <c r="E92" s="39">
@@ -9711,7 +9733,7 @@
         <v>215</v>
       </c>
       <c r="D93" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="E93" s="39">
@@ -9732,7 +9754,7 @@
         <v>217</v>
       </c>
       <c r="D94" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.81792717086834732</v>
       </c>
       <c r="E94" s="39">
@@ -9753,7 +9775,7 @@
         <v>219</v>
       </c>
       <c r="D95" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.78296256104177975</v>
       </c>
       <c r="E95" s="39">
@@ -9774,7 +9796,7 @@
         <v>221</v>
       </c>
       <c r="D96" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.87720974677496422</v>
       </c>
       <c r="E96" s="39">
@@ -9795,7 +9817,7 @@
         <v>223</v>
       </c>
       <c r="D97" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.77435265104808881</v>
       </c>
       <c r="E97" s="39">
@@ -9816,7 +9838,7 @@
         <v>225</v>
       </c>
       <c r="D98" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.75086107921928824</v>
       </c>
       <c r="E98" s="39">
@@ -9837,7 +9859,7 @@
         <v>227</v>
       </c>
       <c r="D99" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.68544600938967137</v>
       </c>
       <c r="E99" s="39">
@@ -9858,7 +9880,7 @@
         <v>229</v>
       </c>
       <c r="D100" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.78680203045685282</v>
       </c>
       <c r="E100" s="39">
@@ -9879,7 +9901,7 @@
         <v>231</v>
       </c>
       <c r="D101" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.72575250836120397</v>
       </c>
       <c r="E101" s="39">
@@ -9900,7 +9922,7 @@
         <v>233</v>
       </c>
       <c r="D102" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
       <c r="E102" s="39">
@@ -9920,9 +9942,16 @@
       <c r="C103" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
+      <c r="D103" s="38">
+        <f t="shared" si="0"/>
+        <v>0.7421875</v>
+      </c>
+      <c r="E103" s="41">
+        <v>128</v>
+      </c>
+      <c r="F103" s="41">
+        <v>33</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
@@ -9935,7 +9964,7 @@
         <v>237</v>
       </c>
       <c r="D104" s="38">
-        <f t="shared" ref="D104:D143" si="4">1-(F104/E104)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E104" s="39">
@@ -9956,7 +9985,7 @@
         <v>239</v>
       </c>
       <c r="D105" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.94175553732567674</v>
       </c>
       <c r="E105" s="39">
@@ -9977,7 +10006,7 @@
         <v>241</v>
       </c>
       <c r="D106" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.95388894832566595</v>
       </c>
       <c r="E106" s="39">
@@ -9998,7 +10027,7 @@
         <v>243</v>
       </c>
       <c r="D107" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.7767857142857143</v>
       </c>
       <c r="E107" s="39">
@@ -10019,7 +10048,7 @@
         <v>245</v>
       </c>
       <c r="D108" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.87279567364213495</v>
       </c>
       <c r="E108" s="39">
@@ -10040,7 +10069,7 @@
         <v>247</v>
       </c>
       <c r="D109" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.8605577689243028</v>
       </c>
       <c r="E109" s="39">
@@ -10061,7 +10090,7 @@
         <v>249</v>
       </c>
       <c r="D110" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.9701986754966887</v>
       </c>
       <c r="E110" s="39">
@@ -10082,7 +10111,7 @@
         <v>251</v>
       </c>
       <c r="D111" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.61290322580645162</v>
       </c>
       <c r="E111" s="39">
@@ -10103,7 +10132,7 @@
         <v>253</v>
       </c>
       <c r="D112" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="E112" s="39">
@@ -10124,7 +10153,7 @@
         <v>255</v>
       </c>
       <c r="D113" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.88785046728971961</v>
       </c>
       <c r="E113" s="39">
@@ -10145,7 +10174,7 @@
         <v>257</v>
       </c>
       <c r="D114" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.94166666666666665</v>
       </c>
       <c r="E114" s="39">
@@ -10166,7 +10195,7 @@
         <v>259</v>
       </c>
       <c r="D115" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.78672985781990523</v>
       </c>
       <c r="E115" s="39">
@@ -10187,7 +10216,7 @@
         <v>261</v>
       </c>
       <c r="D116" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.84722222222222221</v>
       </c>
       <c r="E116" s="39">
@@ -10208,7 +10237,7 @@
         <v>263</v>
       </c>
       <c r="D117" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.91647684130599849</v>
       </c>
       <c r="E117" s="39">
@@ -10229,7 +10258,7 @@
         <v>265</v>
       </c>
       <c r="D118" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="E118" s="39">
@@ -10250,7 +10279,7 @@
         <v>267</v>
       </c>
       <c r="D119" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.87359760658189978</v>
       </c>
       <c r="E119" s="39">
@@ -10271,7 +10300,7 @@
         <v>269</v>
       </c>
       <c r="D120" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.95744680851063835</v>
       </c>
       <c r="E120" s="39">
@@ -10292,7 +10321,7 @@
         <v>271</v>
       </c>
       <c r="D121" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.79564032697547682</v>
       </c>
       <c r="E121" s="39">
@@ -10313,7 +10342,7 @@
         <v>273</v>
       </c>
       <c r="D122" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.81105990783410142</v>
       </c>
       <c r="E122" s="39">
@@ -10334,7 +10363,7 @@
         <v>275</v>
       </c>
       <c r="D123" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.83443708609271527</v>
       </c>
       <c r="E123" s="39">
@@ -10355,7 +10384,7 @@
         <v>277</v>
       </c>
       <c r="D124" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.94483985765124556</v>
       </c>
       <c r="E124" s="39">
@@ -10376,7 +10405,7 @@
         <v>279</v>
       </c>
       <c r="D125" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.96208262591963778</v>
       </c>
       <c r="E125" s="39">
@@ -10397,7 +10426,7 @@
         <v>281</v>
       </c>
       <c r="D126" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.97259615384615383</v>
       </c>
       <c r="E126" s="39">
@@ -10418,7 +10447,7 @@
         <v>283</v>
       </c>
       <c r="D127" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.94767441860465118</v>
       </c>
       <c r="E127" s="39">
@@ -10439,7 +10468,7 @@
         <v>285</v>
       </c>
       <c r="D128" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.96106048053024029</v>
       </c>
       <c r="E128" s="39">
@@ -10460,7 +10489,7 @@
         <v>287</v>
       </c>
       <c r="D129" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.9004219409282701</v>
       </c>
       <c r="E129" s="39">
@@ -10481,7 +10510,7 @@
         <v>289</v>
       </c>
       <c r="D130" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.9797205948625507</v>
       </c>
       <c r="E130" s="39">
@@ -10502,7 +10531,7 @@
         <v>291</v>
       </c>
       <c r="D131" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E131" s="39">
@@ -10523,7 +10552,7 @@
         <v>293</v>
       </c>
       <c r="D132" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E132" s="39">
@@ -10544,7 +10573,7 @@
         <v>295</v>
       </c>
       <c r="D133" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.94729344729344733</v>
       </c>
       <c r="E133" s="39">
@@ -10565,7 +10594,7 @@
         <v>297</v>
       </c>
       <c r="D134" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E134" s="39">
@@ -10586,7 +10615,7 @@
         <v>299</v>
       </c>
       <c r="D135" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.97147651006711411</v>
       </c>
       <c r="E135" s="39">
@@ -10607,7 +10636,7 @@
         <v>301</v>
       </c>
       <c r="D136" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.98484848484848486</v>
       </c>
       <c r="E136" s="39">
@@ -10628,7 +10657,7 @@
         <v>303</v>
       </c>
       <c r="D137" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.93880837359098224</v>
       </c>
       <c r="E137" s="39">
@@ -10649,7 +10678,7 @@
         <v>305</v>
       </c>
       <c r="D138" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.97619047619047616</v>
       </c>
       <c r="E138" s="39">
@@ -10670,7 +10699,7 @@
         <v>307</v>
       </c>
       <c r="D139" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E139" s="39">
@@ -10691,7 +10720,7 @@
         <v>309</v>
       </c>
       <c r="D140" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.88368580060422963</v>
       </c>
       <c r="E140" s="39">
@@ -10712,7 +10741,7 @@
         <v>311</v>
       </c>
       <c r="D141" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.97403733955659277</v>
       </c>
       <c r="E141" s="39">
@@ -10733,7 +10762,7 @@
         <v>313</v>
       </c>
       <c r="D142" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E142" s="39">
@@ -10754,7 +10783,7 @@
         <v>315</v>
       </c>
       <c r="D143" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.82608695652173914</v>
       </c>
       <c r="E143" s="39">
@@ -10774,9 +10803,16 @@
       <c r="C144" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="D144" s="38"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
+      <c r="D144" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E144" s="41">
+        <v>0</v>
+      </c>
+      <c r="F144" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="36" t="s">
@@ -10789,7 +10825,7 @@
         <v>319</v>
       </c>
       <c r="D145" s="38">
-        <f t="shared" ref="D145:D156" si="5">1-(F145/E145)</f>
+        <f t="shared" si="0"/>
         <v>0.95797280593325096</v>
       </c>
       <c r="E145" s="39">
@@ -10810,7 +10846,7 @@
         <v>321</v>
       </c>
       <c r="D146" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
       <c r="E146" s="39">
@@ -10831,7 +10867,7 @@
         <v>323</v>
       </c>
       <c r="D147" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.93239436619718308</v>
       </c>
       <c r="E147" s="39">
@@ -10852,7 +10888,7 @@
         <v>325</v>
       </c>
       <c r="D148" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E148" s="39">
@@ -10873,7 +10909,7 @@
         <v>327</v>
       </c>
       <c r="D149" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.98222222222222222</v>
       </c>
       <c r="E149" s="39">
@@ -10894,7 +10930,7 @@
         <v>329</v>
       </c>
       <c r="D150" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.93393536121673004</v>
       </c>
       <c r="E150" s="39">
@@ -10915,7 +10951,7 @@
         <v>331</v>
       </c>
       <c r="D151" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="E151" s="39">
@@ -10936,7 +10972,7 @@
         <v>333</v>
       </c>
       <c r="D152" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.9653817824699239</v>
       </c>
       <c r="E152" s="39">
@@ -10957,7 +10993,7 @@
         <v>335</v>
       </c>
       <c r="D153" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E153" s="39">
@@ -10978,7 +11014,7 @@
         <v>337</v>
       </c>
       <c r="D154" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.96584116140051235</v>
       </c>
       <c r="E154" s="39">
@@ -10999,7 +11035,7 @@
         <v>339</v>
       </c>
       <c r="D155" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.94697674418604649</v>
       </c>
       <c r="E155" s="39">
@@ -11020,7 +11056,7 @@
         <v>341</v>
       </c>
       <c r="D156" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.94413676860101137</v>
       </c>
       <c r="E156" s="39">
@@ -11042,63 +11078,74 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
+      <c r="A2" s="44">
         <v>44351</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="46">
         <v>2020</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="45" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="44"/>
+      <c r="A3" s="47">
+        <v>44351</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="46">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/download/2020/RP3_APT_ATFM_SLOT_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_ATFM_SLOT_2020_Jan_Dec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\drive-download-20210714T065343Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="23" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -998,82 +998,82 @@
     <t>LPMA</t>
   </si>
   <si>
-    <t>Montijo AirBase (LPMT)</t>
+    <t>Ponta Delgada (LPPD)</t>
+  </si>
+  <si>
+    <t>LPPD</t>
+  </si>
+  <si>
+    <t>Porto (LPPR)</t>
+  </si>
+  <si>
+    <t>LPPR</t>
+  </si>
+  <si>
+    <t>Porto Santo (LPPS)</t>
+  </si>
+  <si>
+    <t>LPPS</t>
+  </si>
+  <si>
+    <t>Lisbon (LPPT)</t>
+  </si>
+  <si>
+    <t>LPPT</t>
+  </si>
+  <si>
+    <t>Bucharest/ Băneasa (LRBS)</t>
+  </si>
+  <si>
+    <t>LRBS</t>
+  </si>
+  <si>
+    <t>Bucharest/ Otopeni (LROP)</t>
+  </si>
+  <si>
+    <t>LROP</t>
+  </si>
+  <si>
+    <t>Geneva (LSGG)</t>
+  </si>
+  <si>
+    <t>LSGG</t>
+  </si>
+  <si>
+    <t>Zürich (LSZH)</t>
+  </si>
+  <si>
+    <t>LSZH</t>
+  </si>
+  <si>
+    <t>Change date</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>Airport added (processing issue)</t>
   </si>
   <si>
     <t>LPMT</t>
   </si>
   <si>
-    <t>Ponta Delgada (LPPD)</t>
-  </si>
-  <si>
-    <t>LPPD</t>
-  </si>
-  <si>
-    <t>Porto (LPPR)</t>
-  </si>
-  <si>
-    <t>LPPR</t>
-  </si>
-  <si>
-    <t>Porto Santo (LPPS)</t>
-  </si>
-  <si>
-    <t>LPPS</t>
-  </si>
-  <si>
-    <t>Lisbon (LPPT)</t>
-  </si>
-  <si>
-    <t>LPPT</t>
-  </si>
-  <si>
-    <t>Bucharest/ Băneasa (LRBS)</t>
-  </si>
-  <si>
-    <t>LRBS</t>
-  </si>
-  <si>
-    <t>Bucharest/ Otopeni (LROP)</t>
-  </si>
-  <si>
-    <t>LROP</t>
-  </si>
-  <si>
-    <t>Geneva (LSGG)</t>
-  </si>
-  <si>
-    <t>LSGG</t>
-  </si>
-  <si>
-    <t>Zürich (LSZH)</t>
-  </si>
-  <si>
-    <t>LSZH</t>
-  </si>
-  <si>
-    <t>Change date</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>UK airports removed</t>
+    <t>Montijo AirBase removed from Portuguese airports</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Airport added (processing issue)</t>
   </si>
 </sst>
 </file>
@@ -1098,99 +1098,118 @@
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF3F3F3"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1417,7 +1436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,6 +1548,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1567,9 +1593,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44351.721243518521" refreshedVersion="6" recordCount="151">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44391.371206134259" refreshedVersion="6" recordCount="150">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A5:F156" sheet="APT_ATFM_ADH_APT"/>
+    <worksheetSource ref="A5:F155" sheet="APT_ATFM_ADH_APT"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="State" numFmtId="0">
@@ -1606,7 +1632,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="ATFM slot adherence (%)" numFmtId="168">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.43999999999999995" maxValue="1"/>
     </cacheField>
     <cacheField name="ATFM regulated flights" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9347"/>
@@ -1624,7 +1650,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="151">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="150">
   <r>
     <x v="0"/>
     <s v="Brussels (EBBR)"/>
@@ -2763,14 +2789,6 @@
   </r>
   <r>
     <x v="20"/>
-    <s v="Montijo AirBase (LPMT)"/>
-    <s v="LPMT"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="20"/>
     <s v="Ponta Delgada (LPPD)"/>
     <s v="LPPD"/>
     <n v="0.98222222222222222"/>
@@ -2837,7 +2855,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_ADH_LOC" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_ADH_LOC" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A5:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField name="State" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3240,7 +3258,7 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3278,7 +3296,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -3316,44 +3334,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="57">
         <v>6</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="58">
         <v>4953</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="59">
         <v>207</v>
       </c>
       <c r="E7" s="21">
@@ -3363,16 +3383,16 @@
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="61">
         <v>1</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="62">
         <v>4611</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="63">
         <v>119</v>
       </c>
       <c r="E8" s="21">
@@ -3382,16 +3402,16 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="61">
         <v>4</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="62">
         <v>2187</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="63">
         <v>111</v>
       </c>
       <c r="E9" s="21">
@@ -3401,16 +3421,16 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="61">
         <v>1</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="62">
         <v>2382</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="63">
         <v>32</v>
       </c>
       <c r="E10" s="21">
@@ -3420,16 +3440,16 @@
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="61">
         <v>2</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="62">
         <v>198</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="63">
         <v>3</v>
       </c>
       <c r="E11" s="21">
@@ -3439,16 +3459,16 @@
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="61">
         <v>1</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="62">
         <v>1224</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="63">
         <v>78</v>
       </c>
       <c r="E12" s="21">
@@ -3458,16 +3478,16 @@
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="61">
         <v>58</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="62">
         <v>36685</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="63">
         <v>4378</v>
       </c>
       <c r="E13" s="21">
@@ -3477,16 +3497,16 @@
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="61">
         <v>16</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="62">
         <v>29599</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="63">
         <v>1337</v>
       </c>
       <c r="E14" s="21">
@@ -3496,16 +3516,16 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="61">
         <v>1</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="62">
         <v>1124</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="63">
         <v>62</v>
       </c>
       <c r="E15" s="21">
@@ -3515,16 +3535,16 @@
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="61">
         <v>1</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="62">
         <v>1767</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="63">
         <v>67</v>
       </c>
       <c r="E16" s="21">
@@ -3534,16 +3554,16 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="61">
         <v>3</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="62">
         <v>3265</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="63">
         <v>104</v>
       </c>
       <c r="E17" s="21">
@@ -3553,16 +3573,16 @@
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="61">
         <v>5</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="62">
         <v>7551</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="63">
         <v>312</v>
       </c>
       <c r="E18" s="21">
@@ -3572,16 +3592,16 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="61">
         <v>4</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="62">
         <v>491</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="63">
         <v>8</v>
       </c>
       <c r="E19" s="21">
@@ -3591,16 +3611,16 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="61">
         <v>1</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="62">
         <v>1613</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="63">
         <v>158</v>
       </c>
       <c r="E20" s="21">
@@ -3610,16 +3630,16 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="61">
         <v>1</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="62">
         <v>596</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="63">
         <v>17</v>
       </c>
       <c r="E21" s="21">
@@ -3629,16 +3649,16 @@
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="61">
         <v>4</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="62">
         <v>6887</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="63">
         <v>163</v>
       </c>
       <c r="E22" s="21">
@@ -3648,16 +3668,16 @@
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="61">
         <v>4</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="62">
         <v>1827</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="63">
         <v>29</v>
       </c>
       <c r="E23" s="21">
@@ -3667,16 +3687,16 @@
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="61">
         <v>15</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="62">
         <v>4366</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="63">
         <v>204</v>
       </c>
       <c r="E24" s="21">
@@ -3686,35 +3706,35 @@
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="58">
-        <v>11</v>
-      </c>
-      <c r="C25" s="59">
-        <v>8018</v>
-      </c>
-      <c r="D25" s="60">
-        <v>378</v>
+      <c r="B25" s="61">
+        <v>10</v>
+      </c>
+      <c r="C25" s="62">
+        <v>8017</v>
+      </c>
+      <c r="D25" s="63">
+        <v>377</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
-        <v>0.95285607383387383</v>
+        <v>0.95297492827741048</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="61">
         <v>2</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="62">
         <v>1188</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="63">
         <v>40</v>
       </c>
       <c r="E26" s="21">
@@ -3724,16 +3744,16 @@
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="58">
+      <c r="B27" s="61">
         <v>7</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="62">
         <v>19033</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="63">
         <v>895</v>
       </c>
       <c r="E27" s="21">
@@ -3743,16 +3763,16 @@
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="61">
         <v>1</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="62">
         <v>1611</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="63">
         <v>29</v>
       </c>
       <c r="E28" s="21">
@@ -3762,16 +3782,16 @@
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="65">
         <v>2</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="66">
         <v>8453</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="67">
         <v>460</v>
       </c>
       <c r="E29" s="21">
@@ -7800,9 +7820,7 @@
   </sheetPr>
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7840,7 +7858,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -7906,7 +7924,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="38">
-        <f t="shared" ref="D6:D156" si="0">1-(F6/E6)</f>
+        <f t="shared" ref="D6:D155" si="0">1-(F6/E6)</f>
         <v>0.97419214920841468</v>
       </c>
       <c r="E6" s="39">
@@ -10889,13 +10907,13 @@
       </c>
       <c r="D148" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98222222222222222</v>
       </c>
       <c r="E148" s="39">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="F148" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10910,13 +10928,13 @@
       </c>
       <c r="D149" s="38">
         <f t="shared" si="0"/>
-        <v>0.98222222222222222</v>
+        <v>0.93393536121673004</v>
       </c>
       <c r="E149" s="39">
-        <v>225</v>
+        <v>2104</v>
       </c>
       <c r="F149" s="39">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10931,13 +10949,13 @@
       </c>
       <c r="D150" s="38">
         <f t="shared" si="0"/>
-        <v>0.93393536121673004</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E150" s="39">
-        <v>2104</v>
+        <v>28</v>
       </c>
       <c r="F150" s="39">
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10952,20 +10970,20 @@
       </c>
       <c r="D151" s="38">
         <f t="shared" si="0"/>
-        <v>0.9285714285714286</v>
+        <v>0.9653817824699239</v>
       </c>
       <c r="E151" s="39">
-        <v>28</v>
+        <v>4073</v>
       </c>
       <c r="F151" s="39">
-        <v>2</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B152" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="37" t="s">
         <v>332</v>
       </c>
       <c r="C152" s="36" t="s">
@@ -10973,13 +10991,13 @@
       </c>
       <c r="D152" s="38">
         <f t="shared" si="0"/>
-        <v>0.9653817824699239</v>
+        <v>1</v>
       </c>
       <c r="E152" s="39">
-        <v>4073</v>
+        <v>17</v>
       </c>
       <c r="F152" s="39">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10994,20 +11012,20 @@
       </c>
       <c r="D153" s="38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.96584116140051235</v>
       </c>
       <c r="E153" s="39">
-        <v>17</v>
+        <v>1171</v>
       </c>
       <c r="F153" s="39">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B154" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" s="36" t="s">
         <v>336</v>
       </c>
       <c r="C154" s="36" t="s">
@@ -11015,13 +11033,13 @@
       </c>
       <c r="D154" s="38">
         <f t="shared" si="0"/>
-        <v>0.96584116140051235</v>
+        <v>0.94697674418604649</v>
       </c>
       <c r="E154" s="39">
-        <v>1171</v>
+        <v>4300</v>
       </c>
       <c r="F154" s="39">
-        <v>40</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11036,36 +11054,16 @@
       </c>
       <c r="D155" s="38">
         <f t="shared" si="0"/>
-        <v>0.94697674418604649</v>
+        <v>0.94413676860101137</v>
       </c>
       <c r="E155" s="39">
-        <v>4300</v>
+        <v>4153</v>
       </c>
       <c r="F155" s="39">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C156" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="D156" s="38">
-        <f t="shared" si="0"/>
-        <v>0.94413676860101137</v>
-      </c>
-      <c r="E156" s="39">
-        <v>4153</v>
-      </c>
-      <c r="F156" s="39">
         <v>232</v>
       </c>
     </row>
+    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11078,30 +11076,28 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>343</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11109,43 +11105,50 @@
         <v>44351</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C2" s="46">
         <v>2020</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47">
         <v>44351</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="49">
         <v>2020</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>349</v>
+      <c r="D3" s="48" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="47">
+        <v>44391</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="49">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
       <c r="D5" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>